--- a/data/trans_bre/P15_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P15_2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -641,17 +641,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -694,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,48</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,23</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,09</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,49</t>
+          <t>-2,37; 2,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 1,53</t>
+          <t>-7,63; 1,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,17 +761,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>-19,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>-14,45%</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,0</t>
+          <t>-3,43; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,72</t>
+          <t>-2,5; 1,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,61</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 2,41</t>
+          <t>-5,09; 2,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 326,6</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-32,81%</t>
+          <t>-31,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -934,27 +934,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,28; 2,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,39</t>
+          <t>0,0; 2,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 0,45</t>
+          <t>-1,02; 0,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,99</t>
+          <t>-2,67; 2,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-77,58; 360,4</t>
+          <t>-77,39; 348,76</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1001,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>-4,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>61,01%</t>
+          <t>45,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>68,22%</t>
+          <t>68,09%</t>
         </is>
       </c>
     </row>
@@ -1059,22 +1059,22 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 1,09</t>
+          <t>-1,14; 0,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,23</t>
+          <t>-1,13; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,0</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 4,19</t>
+          <t>-1,61; 4,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-79,44; —</t>
+          <t>-76,53; —</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-1,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>59,25%</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,0</t>
+          <t>-2,56; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 1,24</t>
+          <t>-1,31; 0,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 1,87</t>
+          <t>-1,3; 1,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>85,06%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,0</t>
+          <t>-1,5; 0,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1309,12 +1309,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 5,83</t>
+          <t>-1,63; 5,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1361,22 +1361,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1386,22 +1386,22 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>25,43%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>38,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>49,49%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1414,27 +1414,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 0,71</t>
+          <t>0,11; 0,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 0,5</t>
+          <t>-0,32; 0,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,63</t>
+          <t>-0,34; 0,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,66</t>
+          <t>-0,29; 0,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 1,47</t>
+          <t>-1,12; 1,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1444,22 +1444,29 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-59,86; 537,19</t>
+          <t>-67,54; 431,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 427,21</t>
+          <t>-65,95; 501,12</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 103,33</t>
+          <t>-41,93; 106,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
